--- a/biology/Médecine/Leishmaniose_cutanée/Leishmaniose_cutanée.xlsx
+++ b/biology/Médecine/Leishmaniose_cutanée/Leishmaniose_cutanée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leishmaniose_cutan%C3%A9e</t>
+          <t>Leishmaniose_cutanée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La  leishmaniose cutanée  est la forme la plus commune de leishmaniose. C'est une infection cutanée provoquée par un parasite unicellulaire qui est transmis par des piqures de phlébotome. Il y a environ 20 espèces de Leishmania qui peuvent causer une leishmaniose cutanée. 
 Elle était autrefois également connue sous le nom de bouton d'Orient, Clou de Biskra, clou de Biskra, bouton d'Alep ou Bouton d'Alep, suivant les régions et la connaissance ou l’ignorance des règles d’usage des majuscules en français :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leishmaniose_cutan%C3%A9e</t>
+          <t>Leishmaniose_cutanée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Epidemiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La leishmaniose cutanée est endémique dans de nombreuses régions du monde, dont l'Afrique du Nord[1]. Environ vingt espèces différentes de Leishmania sont capables d'infecter les humains. La distribution de la leishmaniose cutanée est très étroitement liée à la géographie et les villages même distants de 15 milles peuvent avoir des taux de leishmaniose cutanée très différents. 
-Quelques espèces de Leishmania sont étroitement liées aux humains et sont donc trouvées dans les villes (par exemple, L. tropica), tandis que certaines sont traditionnellement davantage associées à des espèces animales et sont donc considérées comme des zoonoses (par exemple, L. major). Quelques espèces qui sont traditionnellement considérées comme animales (par exemple, L. panamensis) peut devenir principalement des maladies humaines[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La leishmaniose cutanée est endémique dans de nombreuses régions du monde, dont l'Afrique du Nord. Environ vingt espèces différentes de Leishmania sont capables d'infecter les humains. La distribution de la leishmaniose cutanée est très étroitement liée à la géographie et les villages même distants de 15 milles peuvent avoir des taux de leishmaniose cutanée très différents. 
+Quelques espèces de Leishmania sont étroitement liées aux humains et sont donc trouvées dans les villes (par exemple, L. tropica), tandis que certaines sont traditionnellement davantage associées à des espèces animales et sont donc considérées comme des zoonoses (par exemple, L. major). Quelques espèces qui sont traditionnellement considérées comme animales (par exemple, L. panamensis) peut devenir principalement des maladies humaines.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leishmaniose_cutan%C3%A9e</t>
+          <t>Leishmaniose_cutanée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Promastigotes de leishmania sont transmis à la peau humaine par la piqure d'un phlébotome. La Leishmania  envahit alors les macrophages humains et se divise à l’intérieur des cellules. 
 Une lésion rouge surélevée, se développe à l'emplacement de la piqure (souvent des semaines ou parfois des années plus tard). La lésion alors s’ulcère et peut secondairement être infectée par des bactéries. Pour de nombreuses espèces (par exemple, L. major) la lésion guérit souvent spontanément avec une cicatrice atrophique. Chez quelques espèces (par exemple, L. viannia braziliensis) la lésion peut spontanément guérir avec une cicatrice, puis réapparaître ailleurs (particulièrement sous l’aspect de lésions cutaneo-muqueuses destructives). Les lésions d'autres espèces de leishmania peuvent guérir spontanément puis réapparaître sous forme de lésions satellites autour de l'emplacement de la lésion originale, ou le long du trajet de drainage lymphatique. 
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leishmaniose_cutan%C3%A9e</t>
+          <t>Leishmaniose_cutanée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Leishmaniose  cutanée post kala-azar</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les espèces qui provoquent habituellement une leishmaniose viscérale (par exemple, L. infantum  ou L. donovani) on peut, après traitement bien suivi, voir réapparaître des lésions cutanées multiples appelées « leishmaniose cutanée post kala-azar ». Ce n'est pas le résultat d’un traitement insuffisant de la leishmaniose viscérale. Les lésions cutanées répondront à un nouveau traitement.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Leishmaniose_cutan%C3%A9e</t>
+          <t>Leishmaniose_cutanée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Leishmaniose cutanéo-muqueuse</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La leishmaniose cutanéo-muqueuse est la forme la plus redoutée des leishmanioses cutanées parce qu'elle entraîne  lésions destructives et mutilantes du visage. Elle est provoquée le plus souvent par Leishmania braziliensis Vianna, et L.aethiopica a également été décrit plus rarement. 
 </t>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Leishmaniose_cutan%C3%A9e</t>
+          <t>Leishmaniose_cutanée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'importance d’un traitement adapté de la leishmaniose cutanée est très variable. Les traitements qui fonctionnent pour certaines espèces de leishmania peuvent ne pas fonctionner pour les autres. On recommande de demander l’avis d'un spécialiste en médecine tropicale. Dans l’idéal, tout devrait être tenté pour identifier l’espèce de leishmania en cause par des techniques moléculaires. Dans le contexte d'un pays en voie de développement, il y a souvent une seule espèce seulement présente dans une localité particulière, ainsi il est habituellement inutile de caractériser chaque infection. Malheureusement, la leishmaniose est une maladie orpheline, et presque toutes options thérapeutiques courantes  ont un risque toxique, avec des effets secondaires significatifs. 
 Leishmania major
